--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3370.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3370.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.231264460438139</v>
+        <v>3.535955190658569</v>
       </c>
       <c r="B1">
-        <v>2.594687655593258</v>
+        <v>2.746290683746338</v>
       </c>
       <c r="C1">
-        <v>4.748839377300393</v>
+        <v>2.011159420013428</v>
       </c>
       <c r="D1">
-        <v>3.01147890960574</v>
+        <v>1.855700850486755</v>
       </c>
       <c r="E1">
-        <v>1.171122682564789</v>
+        <v>1.715347766876221</v>
       </c>
     </row>
   </sheetData>
